--- a/R/data/dane_na_przetwarzanie_danych.xlsx
+++ b/R/data/dane_na_przetwarzanie_danych.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\przetwarzanie_danych_projekt_semestralny\R\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BB020E-F466-4688-A4C4-D0F5D1C68C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D756D35C-855C-4ABA-9899-9F35FD45C55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{AD0FC870-279B-4892-97E5-F6FFCD0D3240}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{AD0FC870-279B-4892-97E5-F6FFCD0D3240}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,40 +37,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>data</t>
-  </si>
-  <si>
-    <t>śniadania</t>
-  </si>
-  <si>
-    <t>obiadu</t>
-  </si>
-  <si>
-    <t>godziny</t>
-  </si>
-  <si>
-    <t>minuty</t>
-  </si>
-  <si>
-    <t>sekundy</t>
   </si>
   <si>
     <t>ilość_przeczytanych_stron_książki</t>
   </si>
   <si>
-    <t>czas_przygotowania</t>
+    <t>czas_włączenia_ekranu_godziny</t>
   </si>
   <si>
-    <t>czas_włączenia_ekranu</t>
+    <t>czas_włączenia_ekranu_minuty</t>
+  </si>
+  <si>
+    <t>czas_przygotowania_śniadania_minuty</t>
+  </si>
+  <si>
+    <t>czas_przygotowania_śniadania_sekundy</t>
+  </si>
+  <si>
+    <t>czas_przygotowania_obiadu_minuty</t>
+  </si>
+  <si>
+    <t>czas_przygotowania_obiadu_sekundy</t>
+  </si>
+  <si>
+    <t>czas_włączenia_ekranu_sekundy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,8 +79,15 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,12 +97,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -140,6 +142,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -153,42 +179,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -529,77 +554,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12BAA47-A441-4CB4-8DD7-D595C9622A3D}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+    <sheetView zoomScale="76" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="2" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" customWidth="1"/>
+    <col min="5" max="5" width="34.5546875" customWidth="1"/>
+    <col min="6" max="6" width="33.21875" customWidth="1"/>
+    <col min="7" max="7" width="29.77734375" customWidth="1"/>
+    <col min="8" max="8" width="32.21875" customWidth="1"/>
+    <col min="9" max="9" width="31.21875" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="13"/>
+      <c r="B1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="D1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="A2" s="3">
+        <v>45600</v>
+      </c>
+      <c r="B2" s="4">
         <v>4</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15" t="s">
+      <c r="C2" s="4">
+        <v>17</v>
+      </c>
+      <c r="D2" s="4">
+        <v>25</v>
+      </c>
+      <c r="E2" s="4">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4">
+        <v>33</v>
+      </c>
+      <c r="G2" s="4">
+        <v>11</v>
+      </c>
+      <c r="H2" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>45601</v>
+      </c>
+      <c r="B3" s="4">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4">
+        <v>19</v>
+      </c>
+      <c r="D3" s="4">
+        <v>22</v>
+      </c>
+      <c r="E3" s="4">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4">
+        <v>54</v>
+      </c>
+      <c r="G3" s="4">
+        <v>30</v>
+      </c>
+      <c r="H3" s="4">
         <v>1</v>
-      </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="16"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>45600</v>
+        <v>45602</v>
       </c>
       <c r="B4" s="4">
         <v>4</v>
@@ -608,656 +663,1362 @@
         <v>17</v>
       </c>
       <c r="D4" s="4">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="4">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G4" s="4">
         <v>11</v>
       </c>
       <c r="H4" s="4">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>45601</v>
+        <v>45603</v>
       </c>
       <c r="B5" s="4">
         <v>4</v>
       </c>
       <c r="C5" s="4">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D5" s="4">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4">
         <v>9</v>
       </c>
       <c r="F5" s="4">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G5" s="4">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H5" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>45602</v>
+        <v>45604</v>
       </c>
       <c r="B6" s="4">
         <v>4</v>
       </c>
       <c r="C6" s="4">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
       </c>
       <c r="E6" s="4">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F6" s="4">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="G6" s="4">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H6" s="4">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>45603</v>
+        <v>45605</v>
       </c>
       <c r="B7" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" s="4">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
       </c>
       <c r="E7" s="4">
+        <v>11</v>
+      </c>
+      <c r="F7" s="4">
+        <v>20</v>
+      </c>
+      <c r="G7" s="4">
         <v>9</v>
       </c>
-      <c r="F7" s="4">
-        <v>30</v>
-      </c>
-      <c r="G7" s="4">
-        <v>12</v>
-      </c>
       <c r="H7" s="4">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>45604</v>
+        <v>45606</v>
       </c>
       <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4">
+        <v>54</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>12</v>
+      </c>
+      <c r="F8" s="4">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4">
+        <v>25</v>
+      </c>
+      <c r="H8" s="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>45607</v>
+      </c>
+      <c r="B9" s="6">
         <v>4</v>
       </c>
-      <c r="C8" s="4">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>16</v>
-      </c>
-      <c r="F8" s="4">
-        <v>58</v>
-      </c>
-      <c r="G8" s="4">
-        <v>31</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="C9" s="6">
+        <v>46</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>45605</v>
-      </c>
-      <c r="B9" s="4">
-        <v>2</v>
-      </c>
-      <c r="C9" s="4">
-        <v>19</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>11</v>
-      </c>
-      <c r="F9" s="4">
-        <v>20</v>
-      </c>
-      <c r="G9" s="4">
-        <v>9</v>
-      </c>
-      <c r="H9" s="4">
-        <v>40</v>
+      <c r="F9" s="6">
+        <v>26</v>
+      </c>
+      <c r="G9" s="6">
+        <v>25</v>
+      </c>
+      <c r="H9" s="6">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>45606</v>
-      </c>
-      <c r="B10" s="4">
+      <c r="A10" s="5">
+        <v>45608</v>
+      </c>
+      <c r="B10" s="6">
         <v>3</v>
       </c>
-      <c r="C10" s="4">
-        <v>54</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>12</v>
-      </c>
-      <c r="F10" s="4">
-        <v>10</v>
-      </c>
-      <c r="G10" s="4">
-        <v>25</v>
-      </c>
-      <c r="H10" s="4">
-        <v>43</v>
+      <c r="C10" s="6">
+        <v>44</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>8</v>
+      </c>
+      <c r="F10" s="6">
+        <v>5</v>
+      </c>
+      <c r="G10" s="6">
+        <v>21</v>
+      </c>
+      <c r="H10" s="6">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
-        <v>45607</v>
+        <v>45609</v>
       </c>
       <c r="B11" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11" s="6">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D11" s="6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E11" s="6">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F11" s="6">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G11" s="6">
-        <v>25</v>
-      </c>
-      <c r="H11" s="6">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="H11" s="7">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
-        <v>45608</v>
+        <v>45610</v>
       </c>
       <c r="B12" s="6">
         <v>3</v>
       </c>
       <c r="C12" s="6">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D12" s="6">
         <v>0</v>
       </c>
       <c r="E12" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" s="6">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="G12" s="6">
-        <v>21</v>
-      </c>
-      <c r="H12" s="6">
-        <v>28</v>
+        <v>9</v>
+      </c>
+      <c r="H12" s="7">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
-        <v>45609</v>
+        <v>45611</v>
       </c>
       <c r="B13" s="6">
+        <v>3</v>
+      </c>
+      <c r="C13" s="6">
+        <v>31</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>10</v>
+      </c>
+      <c r="F13" s="6">
+        <v>8</v>
+      </c>
+      <c r="G13" s="6">
+        <v>10</v>
+      </c>
+      <c r="H13" s="7">
         <v>2</v>
-      </c>
-      <c r="C13" s="6">
-        <v>36</v>
-      </c>
-      <c r="D13" s="6">
-        <v>12</v>
-      </c>
-      <c r="E13" s="6">
-        <v>9</v>
-      </c>
-      <c r="F13" s="6">
-        <v>42</v>
-      </c>
-      <c r="G13" s="6">
-        <v>37</v>
-      </c>
-      <c r="H13" s="7">
-        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
-        <v>45610</v>
+        <v>45612</v>
       </c>
       <c r="B14" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C14" s="6">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="D14" s="6">
         <v>0</v>
       </c>
       <c r="E14" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F14" s="6">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G14" s="6">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="H14" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
-        <v>45611</v>
+        <v>45613</v>
       </c>
       <c r="B15" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C15" s="6">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D15" s="6">
         <v>0</v>
       </c>
       <c r="E15" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F15" s="6">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="G15" s="6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>45612</v>
-      </c>
-      <c r="B16" s="6">
-        <v>5</v>
-      </c>
-      <c r="C16" s="6">
-        <v>10</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6">
+      <c r="A16" s="8">
+        <v>45614</v>
+      </c>
+      <c r="B16" s="9">
+        <v>6</v>
+      </c>
+      <c r="C16" s="9">
+        <v>43</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
         <v>9</v>
       </c>
-      <c r="F16" s="6">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6">
+      <c r="F16" s="9">
+        <v>41</v>
+      </c>
+      <c r="G16" s="9">
+        <v>4</v>
+      </c>
+      <c r="H16" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>45615</v>
+      </c>
+      <c r="B17" s="9">
+        <v>2</v>
+      </c>
+      <c r="C17" s="9">
+        <v>40</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9">
+        <v>9</v>
+      </c>
+      <c r="F17" s="9">
+        <v>59</v>
+      </c>
+      <c r="G17" s="9">
+        <v>4</v>
+      </c>
+      <c r="H17" s="10">
         <v>45</v>
-      </c>
-      <c r="H16" s="7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>45613</v>
-      </c>
-      <c r="B17" s="6">
-        <v>6</v>
-      </c>
-      <c r="C17" s="6">
-        <v>28</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0</v>
-      </c>
-      <c r="E17" s="6">
-        <v>12</v>
-      </c>
-      <c r="F17" s="6">
-        <v>41</v>
-      </c>
-      <c r="G17" s="6">
-        <v>13</v>
-      </c>
-      <c r="H17" s="7">
-        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
-        <v>45614</v>
+        <v>45616</v>
       </c>
       <c r="B18" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="9">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D18" s="9">
         <v>0</v>
       </c>
       <c r="E18" s="9">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F18" s="9">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G18" s="9">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="H18" s="10">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
-        <v>45615</v>
+        <v>45617</v>
       </c>
       <c r="B19" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19" s="9">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D19" s="9">
         <v>0</v>
       </c>
       <c r="E19" s="9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F19" s="9">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="G19" s="9">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="H19" s="10">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="B20" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C20" s="9">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D20" s="9">
         <v>0</v>
       </c>
       <c r="E20" s="9">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="F20" s="9">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G20" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H20" s="10">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
-        <v>45617</v>
+        <v>45619</v>
       </c>
       <c r="B21" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C21" s="9">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D21" s="9">
         <v>0</v>
       </c>
       <c r="E21" s="9">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F21" s="9">
+        <v>33</v>
+      </c>
+      <c r="G21" s="9">
+        <v>11</v>
+      </c>
+      <c r="H21" s="10">
         <v>7</v>
-      </c>
-      <c r="G21" s="9">
-        <v>22</v>
-      </c>
-      <c r="H21" s="10">
-        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
-        <v>45618</v>
+        <v>45620</v>
       </c>
       <c r="B22" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D22" s="9">
         <v>0</v>
       </c>
       <c r="E22" s="9">
+        <v>15</v>
+      </c>
+      <c r="F22" s="9">
+        <v>9</v>
+      </c>
+      <c r="G22" s="9">
         <v>54</v>
       </c>
-      <c r="F22" s="9">
-        <v>23</v>
-      </c>
-      <c r="G22" s="9">
-        <v>18</v>
-      </c>
       <c r="H22" s="10">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
-        <v>45619</v>
-      </c>
-      <c r="B23" s="9">
-        <v>2</v>
-      </c>
-      <c r="C23" s="9">
-        <v>51</v>
-      </c>
-      <c r="D23" s="9">
-        <v>0</v>
-      </c>
-      <c r="E23" s="9">
-        <v>30</v>
-      </c>
-      <c r="F23" s="9">
-        <v>33</v>
-      </c>
-      <c r="G23" s="9">
-        <v>11</v>
-      </c>
-      <c r="H23" s="10">
-        <v>7</v>
+        <v>45621</v>
+      </c>
+      <c r="B23" s="11">
+        <v>5</v>
+      </c>
+      <c r="C23" s="11">
+        <v>10</v>
+      </c>
+      <c r="D23" s="11">
+        <v>0</v>
+      </c>
+      <c r="E23" s="11">
+        <v>10</v>
+      </c>
+      <c r="F23" s="11">
+        <v>40</v>
+      </c>
+      <c r="G23" s="11">
+        <v>12</v>
+      </c>
+      <c r="H23" s="12">
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
-        <v>45620</v>
-      </c>
-      <c r="B24" s="9">
-        <v>3</v>
-      </c>
-      <c r="C24" s="9">
-        <v>35</v>
-      </c>
-      <c r="D24" s="9">
-        <v>0</v>
-      </c>
-      <c r="E24" s="9">
-        <v>15</v>
-      </c>
-      <c r="F24" s="9">
+        <v>45622</v>
+      </c>
+      <c r="B24" s="12">
+        <v>5</v>
+      </c>
+      <c r="C24" s="12">
+        <v>50</v>
+      </c>
+      <c r="D24" s="11">
+        <v>26</v>
+      </c>
+      <c r="E24" s="11">
+        <v>7</v>
+      </c>
+      <c r="F24" s="11">
+        <v>23</v>
+      </c>
+      <c r="G24" s="11">
         <v>9</v>
       </c>
-      <c r="G24" s="9">
-        <v>54</v>
-      </c>
-      <c r="H24" s="10">
+      <c r="H24" s="12">
         <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
-        <v>45621</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11">
-        <v>0</v>
-      </c>
-      <c r="E25" s="11">
+        <v>45623</v>
+      </c>
+      <c r="B25" s="12">
+        <v>5</v>
+      </c>
+      <c r="C25" s="12">
+        <v>17</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0</v>
+      </c>
+      <c r="E25" s="12">
+        <v>9</v>
+      </c>
+      <c r="F25" s="12">
+        <v>59</v>
+      </c>
+      <c r="G25" s="12">
         <v>10</v>
       </c>
-      <c r="F25" s="11">
-        <v>40</v>
-      </c>
-      <c r="G25" s="11">
-        <v>12</v>
-      </c>
       <c r="H25" s="12">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
-        <v>45622</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="11">
-        <v>26</v>
-      </c>
-      <c r="E26" s="11">
-        <v>7</v>
-      </c>
-      <c r="F26" s="11">
-        <v>23</v>
-      </c>
-      <c r="G26" s="11">
+        <v>45624</v>
+      </c>
+      <c r="B26" s="12">
+        <v>6</v>
+      </c>
+      <c r="C26" s="12">
         <v>9</v>
       </c>
+      <c r="D26" s="12">
+        <v>0</v>
+      </c>
+      <c r="E26" s="12">
+        <v>11</v>
+      </c>
+      <c r="F26" s="12">
+        <v>31</v>
+      </c>
+      <c r="G26" s="12">
+        <v>18</v>
+      </c>
       <c r="H26" s="12">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
-        <v>45623</v>
-      </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+        <v>45625</v>
+      </c>
+      <c r="B27" s="12">
+        <v>4</v>
+      </c>
+      <c r="C27" s="12">
+        <v>6</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0</v>
+      </c>
+      <c r="E27" s="12">
+        <v>10</v>
+      </c>
+      <c r="F27" s="12">
+        <v>19</v>
+      </c>
+      <c r="G27" s="12">
+        <v>8</v>
+      </c>
+      <c r="H27" s="12">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
-        <v>45624</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
+        <v>45626</v>
+      </c>
+      <c r="B28" s="12">
+        <v>6</v>
+      </c>
+      <c r="C28" s="12">
+        <v>9</v>
+      </c>
+      <c r="D28" s="12">
+        <v>0</v>
+      </c>
+      <c r="E28" s="12">
+        <v>17</v>
+      </c>
+      <c r="F28" s="12">
+        <v>15</v>
+      </c>
+      <c r="G28" s="12">
+        <v>18</v>
+      </c>
+      <c r="H28" s="12">
+        <v>48</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
-        <v>45625</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
+        <v>45627</v>
+      </c>
+      <c r="B29" s="12">
+        <v>5</v>
+      </c>
+      <c r="C29" s="12">
+        <v>48</v>
+      </c>
+      <c r="D29" s="12">
+        <v>0</v>
+      </c>
+      <c r="E29" s="12">
+        <v>11</v>
+      </c>
+      <c r="F29" s="12">
+        <v>2</v>
+      </c>
+      <c r="G29" s="12">
+        <v>8</v>
+      </c>
+      <c r="H29" s="12">
+        <v>33</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
-        <v>45626</v>
-      </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
+        <v>45628</v>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17">
+        <v>0</v>
+      </c>
+      <c r="E30" s="17">
+        <v>10</v>
+      </c>
+      <c r="F30" s="17">
+        <v>43</v>
+      </c>
+      <c r="G30" s="17">
+        <v>18</v>
+      </c>
+      <c r="H30" s="17">
+        <v>40</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
+        <v>45629</v>
+      </c>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17">
+        <v>0</v>
+      </c>
+      <c r="E31" s="17">
+        <v>10</v>
+      </c>
+      <c r="F31" s="17">
+        <v>24</v>
+      </c>
+      <c r="G31" s="17">
+        <v>5</v>
+      </c>
+      <c r="H31" s="17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="8">
+        <v>45630</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17">
+        <v>7</v>
+      </c>
+      <c r="F32" s="17">
+        <v>25</v>
+      </c>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88206E22-BD94-4571-A013-E35B2951DE9B}">
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" customWidth="1"/>
+    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.77734375" customWidth="1"/>
+    <col min="5" max="5" width="33.44140625" customWidth="1"/>
+    <col min="6" max="6" width="36.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="19">
+        <v>45600</v>
+      </c>
+      <c r="B2" s="7">
+        <v>15420</v>
+      </c>
+      <c r="C2" s="7">
+        <v>25</v>
+      </c>
+      <c r="D2" s="7">
+        <v>693</v>
+      </c>
+      <c r="E2" s="7">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="19">
+        <v>45601</v>
+      </c>
+      <c r="B3" s="7">
+        <v>15540</v>
+      </c>
+      <c r="C3" s="7">
+        <v>22</v>
+      </c>
+      <c r="D3" s="7">
+        <v>594</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="19">
+        <v>45602</v>
+      </c>
+      <c r="B4" s="7">
+        <v>15420</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>619</v>
+      </c>
+      <c r="E4" s="7">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="19">
+        <v>45603</v>
+      </c>
+      <c r="B5" s="7">
+        <v>16140</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>570</v>
+      </c>
+      <c r="E5" s="7">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="19">
+        <v>45604</v>
+      </c>
+      <c r="B6" s="7">
+        <v>14760</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1018</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="19">
+        <v>45605</v>
+      </c>
+      <c r="B7" s="7">
+        <v>8340</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>680</v>
+      </c>
+      <c r="E7" s="7">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="19">
+        <v>45606</v>
+      </c>
+      <c r="B8" s="7">
+        <v>14040</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>730</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="19">
+        <v>45607</v>
+      </c>
+      <c r="B9" s="12">
+        <v>17160</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12">
+        <v>806</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="19">
+        <v>45608</v>
+      </c>
+      <c r="B10" s="12">
+        <v>13440</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12">
+        <v>485</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="19">
+        <v>45609</v>
+      </c>
+      <c r="B11" s="12">
+        <v>9360</v>
+      </c>
+      <c r="C11" s="12">
+        <v>12</v>
+      </c>
+      <c r="D11" s="12">
+        <v>582</v>
+      </c>
+      <c r="E11" s="12">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="19">
+        <v>45610</v>
+      </c>
+      <c r="B12" s="12">
+        <v>13980</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12">
+        <v>453</v>
+      </c>
+      <c r="E12" s="12">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="19">
+        <v>45611</v>
+      </c>
+      <c r="B13" s="12">
+        <v>12660</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12">
+        <v>608</v>
+      </c>
+      <c r="E13" s="12">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="19">
+        <v>45612</v>
+      </c>
+      <c r="B14" s="12">
+        <v>18600</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12">
+        <v>540</v>
+      </c>
+      <c r="E14" s="12">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="19">
+        <v>45613</v>
+      </c>
+      <c r="B15" s="12">
+        <v>23280</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12">
+        <v>761</v>
+      </c>
+      <c r="E15" s="12">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="19">
+        <v>45614</v>
+      </c>
+      <c r="B16" s="10">
+        <v>24180</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0</v>
+      </c>
+      <c r="D16" s="10">
+        <v>581</v>
+      </c>
+      <c r="E16" s="10">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="19">
+        <v>45615</v>
+      </c>
+      <c r="B17" s="10">
+        <v>9600</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0</v>
+      </c>
+      <c r="D17" s="10">
+        <v>599</v>
+      </c>
+      <c r="E17" s="10">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="19">
+        <v>45616</v>
+      </c>
+      <c r="B18" s="10">
+        <v>20940</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0</v>
+      </c>
+      <c r="D18" s="10">
+        <v>934</v>
+      </c>
+      <c r="E18" s="10">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="19">
+        <v>45617</v>
+      </c>
+      <c r="B19" s="10">
+        <v>17580</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0</v>
+      </c>
+      <c r="D19" s="10">
+        <v>307</v>
+      </c>
+      <c r="E19" s="10">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="19">
+        <v>45618</v>
+      </c>
+      <c r="B20" s="10">
+        <v>5640</v>
+      </c>
+      <c r="C20" s="10">
+        <v>0</v>
+      </c>
+      <c r="D20" s="10">
+        <v>3263</v>
+      </c>
+      <c r="E20" s="10">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="19">
+        <v>45619</v>
+      </c>
+      <c r="B21" s="10">
+        <v>10260</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0</v>
+      </c>
+      <c r="D21" s="10">
+        <v>1833</v>
+      </c>
+      <c r="E21" s="10">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="19">
+        <v>45620</v>
+      </c>
+      <c r="B22" s="10">
+        <v>12900</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0</v>
+      </c>
+      <c r="D22" s="10">
+        <v>909</v>
+      </c>
+      <c r="E22" s="10">
+        <v>3279</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="19">
+        <v>45621</v>
+      </c>
+      <c r="B23" s="20">
+        <v>18600</v>
+      </c>
+      <c r="C23" s="20">
+        <v>0</v>
+      </c>
+      <c r="D23" s="20">
+        <v>640</v>
+      </c>
+      <c r="E23" s="20">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="19">
+        <v>45622</v>
+      </c>
+      <c r="B24" s="20">
+        <v>21000</v>
+      </c>
+      <c r="C24" s="20">
+        <v>26</v>
+      </c>
+      <c r="D24" s="20">
+        <v>443</v>
+      </c>
+      <c r="E24" s="20">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="19">
+        <v>45623</v>
+      </c>
+      <c r="B25" s="20">
+        <v>19020</v>
+      </c>
+      <c r="C25" s="20">
+        <v>0</v>
+      </c>
+      <c r="D25" s="20">
+        <v>599</v>
+      </c>
+      <c r="E25" s="20">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="19">
+        <v>45624</v>
+      </c>
+      <c r="B26" s="20">
+        <v>22140</v>
+      </c>
+      <c r="C26" s="20">
+        <v>0</v>
+      </c>
+      <c r="D26" s="20">
+        <v>691</v>
+      </c>
+      <c r="E26" s="20">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="19">
+        <v>45625</v>
+      </c>
+      <c r="B27" s="20">
+        <v>14760</v>
+      </c>
+      <c r="C27" s="20">
+        <v>0</v>
+      </c>
+      <c r="D27" s="20">
+        <v>619</v>
+      </c>
+      <c r="E27" s="20">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="19">
+        <v>45626</v>
+      </c>
+      <c r="B28" s="20">
+        <v>22140</v>
+      </c>
+      <c r="C28" s="20">
+        <v>0</v>
+      </c>
+      <c r="D28" s="20">
+        <v>1035</v>
+      </c>
+      <c r="E28" s="20">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="19">
         <v>45627</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
+      <c r="B29" s="20">
+        <v>20880</v>
+      </c>
+      <c r="C29" s="20">
+        <v>0</v>
+      </c>
+      <c r="D29" s="20">
+        <v>662</v>
+      </c>
+      <c r="E29" s="20">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="19">
+        <v>45628</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21">
+        <v>0</v>
+      </c>
+      <c r="D30" s="21">
+        <v>643</v>
+      </c>
+      <c r="E30" s="21">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="19">
+        <v>45629</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21">
+        <v>0</v>
+      </c>
+      <c r="D31" s="21">
+        <v>624</v>
+      </c>
+      <c r="E31" s="21">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="19">
+        <v>45630</v>
+      </c>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21">
+        <v>445</v>
+      </c>
+      <c r="E32" s="21"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="19">
+        <v>45631</v>
+      </c>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="19">
+        <v>45632</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="19">
+        <v>45633</v>
+      </c>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="19">
+        <v>45634</v>
+      </c>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/R/data/dane_na_przetwarzanie_danych.xlsx
+++ b/R/data/dane_na_przetwarzanie_danych.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\przetwarzanie_danych_projekt_semestralny\R\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D756D35C-855C-4ABA-9899-9F35FD45C55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008D063B-7F48-423C-85AF-00BF22DC6C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{AD0FC870-279B-4892-97E5-F6FFCD0D3240}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{AD0FC870-279B-4892-97E5-F6FFCD0D3240}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,6 +166,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -179,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -214,6 +238,10 @@
     <xf numFmtId="14" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -554,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12BAA47-A441-4CB4-8DD7-D595C9622A3D}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView zoomScale="76" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="76" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65:H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1332,8 +1360,12 @@
       <c r="A30" s="8">
         <v>45628</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
+      <c r="B30" s="17">
+        <v>6</v>
+      </c>
+      <c r="C30" s="17">
+        <v>17</v>
+      </c>
       <c r="D30" s="17">
         <v>0</v>
       </c>
@@ -1354,8 +1386,12 @@
       <c r="A31" s="8">
         <v>45629</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
+      <c r="B31" s="17">
+        <v>5</v>
+      </c>
+      <c r="C31" s="17">
+        <v>46</v>
+      </c>
       <c r="D31" s="17">
         <v>0</v>
       </c>
@@ -1376,53 +1412,943 @@
       <c r="A32" s="8">
         <v>45630</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
+      <c r="B32" s="17">
+        <v>4</v>
+      </c>
+      <c r="C32" s="17">
+        <v>31</v>
+      </c>
+      <c r="D32" s="17">
+        <v>0</v>
+      </c>
       <c r="E32" s="17">
         <v>7</v>
       </c>
       <c r="F32" s="17">
         <v>25</v>
       </c>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
+      <c r="G32" s="17">
+        <v>7</v>
+      </c>
+      <c r="H32" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="8">
+        <v>45631</v>
+      </c>
+      <c r="B33" s="17">
+        <v>5</v>
+      </c>
+      <c r="C33" s="17">
+        <v>10</v>
+      </c>
+      <c r="D33" s="17">
+        <v>0</v>
+      </c>
+      <c r="E33" s="17">
+        <v>4</v>
+      </c>
+      <c r="F33" s="17">
+        <v>52</v>
+      </c>
+      <c r="G33" s="17">
+        <v>8</v>
+      </c>
+      <c r="H33" s="17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
+        <v>45632</v>
+      </c>
+      <c r="B34" s="17">
+        <v>9</v>
+      </c>
+      <c r="C34" s="17">
+        <v>8</v>
+      </c>
+      <c r="D34" s="17">
+        <v>0</v>
+      </c>
+      <c r="E34" s="17">
+        <v>8</v>
+      </c>
+      <c r="F34" s="17">
+        <v>14</v>
+      </c>
+      <c r="G34" s="17">
+        <v>11</v>
+      </c>
+      <c r="H34" s="17">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
+        <v>45633</v>
+      </c>
+      <c r="B35" s="17">
+        <v>6</v>
+      </c>
+      <c r="C35" s="17">
+        <v>36</v>
+      </c>
+      <c r="D35" s="17">
+        <v>0</v>
+      </c>
+      <c r="E35" s="17">
+        <v>9</v>
+      </c>
+      <c r="F35" s="17">
+        <v>37</v>
+      </c>
+      <c r="G35" s="17">
+        <v>5</v>
+      </c>
+      <c r="H35" s="17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
+        <v>45634</v>
+      </c>
+      <c r="B36" s="17">
+        <v>8</v>
+      </c>
+      <c r="C36" s="17">
+        <v>41</v>
+      </c>
+      <c r="D36" s="17">
+        <v>0</v>
+      </c>
+      <c r="E36" s="17">
+        <v>8</v>
+      </c>
+      <c r="F36" s="17">
+        <v>38</v>
+      </c>
+      <c r="G36" s="17">
+        <v>6</v>
+      </c>
+      <c r="H36" s="17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="8">
+        <v>45635</v>
+      </c>
+      <c r="B37" s="22">
+        <v>4</v>
+      </c>
+      <c r="C37" s="22">
+        <v>25</v>
+      </c>
+      <c r="D37" s="22">
+        <v>0</v>
+      </c>
+      <c r="E37" s="22">
+        <v>11</v>
+      </c>
+      <c r="F37" s="22">
+        <v>51</v>
+      </c>
+      <c r="G37" s="22">
+        <v>10</v>
+      </c>
+      <c r="H37" s="22">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="8">
+        <v>45636</v>
+      </c>
+      <c r="B38" s="22">
+        <v>5</v>
+      </c>
+      <c r="C38" s="22">
+        <v>52</v>
+      </c>
+      <c r="D38" s="22">
+        <v>0</v>
+      </c>
+      <c r="E38" s="22">
+        <v>5</v>
+      </c>
+      <c r="F38" s="22">
+        <v>34</v>
+      </c>
+      <c r="G38" s="22">
+        <v>21</v>
+      </c>
+      <c r="H38" s="22">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="8">
+        <v>45637</v>
+      </c>
+      <c r="B39" s="22">
+        <v>3</v>
+      </c>
+      <c r="C39" s="22">
+        <v>13</v>
+      </c>
+      <c r="D39" s="22">
+        <v>0</v>
+      </c>
+      <c r="E39" s="22">
+        <v>17</v>
+      </c>
+      <c r="F39" s="22">
+        <v>24</v>
+      </c>
+      <c r="G39" s="22">
+        <v>15</v>
+      </c>
+      <c r="H39" s="22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="8">
+        <v>45638</v>
+      </c>
+      <c r="B40" s="22">
+        <v>5</v>
+      </c>
+      <c r="C40" s="22">
+        <v>34</v>
+      </c>
+      <c r="D40" s="22">
+        <v>0</v>
+      </c>
+      <c r="E40" s="22">
+        <v>8</v>
+      </c>
+      <c r="F40" s="22">
+        <v>5</v>
+      </c>
+      <c r="G40" s="22">
+        <v>33</v>
+      </c>
+      <c r="H40" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="8">
+        <v>45639</v>
+      </c>
+      <c r="B41" s="22">
+        <v>6</v>
+      </c>
+      <c r="C41" s="22">
+        <v>21</v>
+      </c>
+      <c r="D41" s="22">
+        <v>0</v>
+      </c>
+      <c r="E41" s="22">
+        <v>10</v>
+      </c>
+      <c r="F41" s="22">
+        <v>51</v>
+      </c>
+      <c r="G41" s="22">
+        <v>8</v>
+      </c>
+      <c r="H41" s="22">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="8">
+        <v>45640</v>
+      </c>
+      <c r="B42" s="22">
+        <v>3</v>
+      </c>
+      <c r="C42" s="22">
+        <v>42</v>
+      </c>
+      <c r="D42" s="22">
+        <v>0</v>
+      </c>
+      <c r="E42" s="22">
+        <v>10</v>
+      </c>
+      <c r="F42" s="22">
+        <v>8</v>
+      </c>
+      <c r="G42" s="22">
+        <v>16</v>
+      </c>
+      <c r="H42" s="22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="8">
+        <v>45641</v>
+      </c>
+      <c r="B43" s="22">
+        <v>6</v>
+      </c>
+      <c r="C43" s="22">
+        <v>14</v>
+      </c>
+      <c r="D43" s="22">
+        <v>0</v>
+      </c>
+      <c r="E43" s="22">
+        <v>15</v>
+      </c>
+      <c r="F43" s="22">
+        <v>41</v>
+      </c>
+      <c r="G43" s="22">
+        <v>28</v>
+      </c>
+      <c r="H43" s="22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="8">
+        <v>45642</v>
+      </c>
+      <c r="B44" s="23">
+        <v>7</v>
+      </c>
+      <c r="C44" s="23">
+        <v>2</v>
+      </c>
+      <c r="D44" s="23">
+        <v>0</v>
+      </c>
+      <c r="E44" s="23">
+        <v>7</v>
+      </c>
+      <c r="F44" s="23">
+        <v>26</v>
+      </c>
+      <c r="G44" s="23">
+        <v>5</v>
+      </c>
+      <c r="H44" s="23">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="8">
+        <v>45643</v>
+      </c>
+      <c r="B45" s="23">
+        <v>4</v>
+      </c>
+      <c r="C45" s="23">
+        <v>10</v>
+      </c>
+      <c r="D45" s="23">
+        <v>0</v>
+      </c>
+      <c r="E45" s="23">
+        <v>11</v>
+      </c>
+      <c r="F45" s="23">
+        <v>43</v>
+      </c>
+      <c r="G45" s="23">
+        <v>22</v>
+      </c>
+      <c r="H45" s="23">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="8">
+        <v>45644</v>
+      </c>
+      <c r="B46" s="23">
+        <v>6</v>
+      </c>
+      <c r="C46" s="23">
+        <v>10</v>
+      </c>
+      <c r="D46" s="23">
+        <v>0</v>
+      </c>
+      <c r="E46" s="23">
+        <v>8</v>
+      </c>
+      <c r="F46" s="23">
+        <v>31</v>
+      </c>
+      <c r="G46" s="23">
+        <v>17</v>
+      </c>
+      <c r="H46" s="23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="8">
+        <v>45645</v>
+      </c>
+      <c r="B47" s="23">
+        <v>9</v>
+      </c>
+      <c r="C47" s="23">
+        <v>22</v>
+      </c>
+      <c r="D47" s="23">
+        <v>0</v>
+      </c>
+      <c r="E47" s="23">
+        <v>14</v>
+      </c>
+      <c r="F47" s="23">
+        <v>58</v>
+      </c>
+      <c r="G47" s="23">
+        <v>28</v>
+      </c>
+      <c r="H47" s="23">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="8">
+        <v>45646</v>
+      </c>
+      <c r="B48" s="23">
+        <v>4</v>
+      </c>
+      <c r="C48" s="23">
+        <v>55</v>
+      </c>
+      <c r="D48" s="23">
+        <v>0</v>
+      </c>
+      <c r="E48" s="23">
+        <v>10</v>
+      </c>
+      <c r="F48" s="23">
+        <v>20</v>
+      </c>
+      <c r="G48" s="23">
+        <v>4</v>
+      </c>
+      <c r="H48" s="23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="8">
+        <v>45647</v>
+      </c>
+      <c r="B49" s="23">
+        <v>6</v>
+      </c>
+      <c r="C49" s="23">
+        <v>28</v>
+      </c>
+      <c r="D49" s="23">
+        <v>0</v>
+      </c>
+      <c r="E49" s="23">
+        <v>9</v>
+      </c>
+      <c r="F49" s="23">
+        <v>20</v>
+      </c>
+      <c r="G49" s="23">
+        <v>22</v>
+      </c>
+      <c r="H49" s="23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="8">
+        <v>45648</v>
+      </c>
+      <c r="B50" s="23">
+        <v>6</v>
+      </c>
+      <c r="C50" s="23">
+        <v>41</v>
+      </c>
+      <c r="D50" s="23">
+        <v>0</v>
+      </c>
+      <c r="E50" s="23">
+        <v>12</v>
+      </c>
+      <c r="F50" s="23">
+        <v>31</v>
+      </c>
+      <c r="G50" s="23">
+        <v>26</v>
+      </c>
+      <c r="H50" s="23">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="8">
+        <v>45649</v>
+      </c>
+      <c r="B51" s="24">
+        <v>5</v>
+      </c>
+      <c r="C51" s="24">
+        <v>22</v>
+      </c>
+      <c r="D51" s="24">
+        <v>0</v>
+      </c>
+      <c r="E51" s="24">
+        <v>10</v>
+      </c>
+      <c r="F51" s="24">
+        <v>27</v>
+      </c>
+      <c r="G51" s="24">
+        <v>20</v>
+      </c>
+      <c r="H51" s="24">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="8">
+        <v>45650</v>
+      </c>
+      <c r="B52" s="24">
+        <v>4</v>
+      </c>
+      <c r="C52" s="24">
+        <v>54</v>
+      </c>
+      <c r="D52" s="24">
+        <v>0</v>
+      </c>
+      <c r="E52" s="24">
+        <v>12</v>
+      </c>
+      <c r="F52" s="24">
+        <v>37</v>
+      </c>
+      <c r="G52" s="24">
+        <v>27</v>
+      </c>
+      <c r="H52" s="24">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="8">
+        <v>45651</v>
+      </c>
+      <c r="B53" s="24">
+        <v>7</v>
+      </c>
+      <c r="C53" s="24">
+        <v>11</v>
+      </c>
+      <c r="D53" s="24">
+        <v>0</v>
+      </c>
+      <c r="E53" s="24">
+        <v>11</v>
+      </c>
+      <c r="F53" s="24">
+        <v>25</v>
+      </c>
+      <c r="G53" s="24">
+        <v>52</v>
+      </c>
+      <c r="H53" s="24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="8">
+        <v>45652</v>
+      </c>
+      <c r="B54" s="24">
+        <v>5</v>
+      </c>
+      <c r="C54" s="24">
+        <v>20</v>
+      </c>
+      <c r="D54" s="24">
+        <v>0</v>
+      </c>
+      <c r="E54" s="24">
+        <v>26</v>
+      </c>
+      <c r="F54" s="24">
+        <v>23</v>
+      </c>
+      <c r="G54" s="24">
+        <v>28</v>
+      </c>
+      <c r="H54" s="24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="8">
+        <v>45653</v>
+      </c>
+      <c r="B55" s="24">
+        <v>6</v>
+      </c>
+      <c r="C55" s="24">
+        <v>53</v>
+      </c>
+      <c r="D55" s="24">
+        <v>0</v>
+      </c>
+      <c r="E55" s="24">
+        <v>13</v>
+      </c>
+      <c r="F55" s="24">
+        <v>27</v>
+      </c>
+      <c r="G55" s="24">
+        <v>54</v>
+      </c>
+      <c r="H55" s="24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="8">
+        <v>45654</v>
+      </c>
+      <c r="B56" s="24">
+        <v>4</v>
+      </c>
+      <c r="C56" s="24">
+        <v>21</v>
+      </c>
+      <c r="D56" s="24">
+        <v>0</v>
+      </c>
+      <c r="E56" s="24">
+        <v>11</v>
+      </c>
+      <c r="F56" s="24">
+        <v>59</v>
+      </c>
+      <c r="G56" s="24">
+        <v>6</v>
+      </c>
+      <c r="H56" s="24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="8">
+        <v>45655</v>
+      </c>
+      <c r="B57" s="24">
+        <v>6</v>
+      </c>
+      <c r="C57" s="24">
+        <v>35</v>
+      </c>
+      <c r="D57" s="24">
+        <v>0</v>
+      </c>
+      <c r="E57" s="24">
+        <v>11</v>
+      </c>
+      <c r="F57" s="24">
+        <v>32</v>
+      </c>
+      <c r="G57" s="24">
+        <v>10</v>
+      </c>
+      <c r="H57" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="8">
+        <v>45656</v>
+      </c>
+      <c r="B58" s="21">
+        <v>7</v>
+      </c>
+      <c r="C58" s="21">
+        <v>48</v>
+      </c>
+      <c r="D58" s="21">
+        <v>0</v>
+      </c>
+      <c r="E58" s="21">
+        <v>9</v>
+      </c>
+      <c r="F58" s="21">
+        <v>34</v>
+      </c>
+      <c r="G58" s="21">
+        <v>25</v>
+      </c>
+      <c r="H58" s="21">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="8">
+        <v>45657</v>
+      </c>
+      <c r="B59" s="21">
+        <v>7</v>
+      </c>
+      <c r="C59" s="21">
+        <v>39</v>
+      </c>
+      <c r="D59" s="21">
+        <v>0</v>
+      </c>
+      <c r="E59" s="21">
+        <v>12</v>
+      </c>
+      <c r="F59" s="21">
+        <v>16</v>
+      </c>
+      <c r="G59" s="21">
+        <v>13</v>
+      </c>
+      <c r="H59" s="21">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="8">
+        <v>45658</v>
+      </c>
+      <c r="B60" s="21">
+        <v>4</v>
+      </c>
+      <c r="C60" s="21">
+        <v>54</v>
+      </c>
+      <c r="D60" s="21">
+        <v>0</v>
+      </c>
+      <c r="E60" s="21">
+        <v>5</v>
+      </c>
+      <c r="F60" s="21">
+        <v>34</v>
+      </c>
+      <c r="G60" s="21">
+        <v>17</v>
+      </c>
+      <c r="H60" s="21">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="8">
+        <v>45659</v>
+      </c>
+      <c r="B61" s="21">
+        <v>3</v>
+      </c>
+      <c r="C61" s="21">
+        <v>50</v>
+      </c>
+      <c r="D61" s="21">
+        <v>0</v>
+      </c>
+      <c r="E61" s="21">
+        <v>9</v>
+      </c>
+      <c r="F61" s="21">
+        <v>54</v>
+      </c>
+      <c r="G61" s="21">
+        <v>29</v>
+      </c>
+      <c r="H61" s="21">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="8">
+        <v>45660</v>
+      </c>
+      <c r="B62" s="21">
+        <v>5</v>
+      </c>
+      <c r="C62" s="21">
+        <v>39</v>
+      </c>
+      <c r="D62" s="21">
+        <v>0</v>
+      </c>
+      <c r="E62" s="21">
+        <v>13</v>
+      </c>
+      <c r="F62" s="21">
+        <v>26</v>
+      </c>
+      <c r="G62" s="21">
+        <v>18</v>
+      </c>
+      <c r="H62" s="21">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="8">
+        <v>45661</v>
+      </c>
+      <c r="B63" s="21">
+        <v>9</v>
+      </c>
+      <c r="C63" s="21">
+        <v>39</v>
+      </c>
+      <c r="D63" s="21">
+        <v>0</v>
+      </c>
+      <c r="E63" s="21">
+        <v>11</v>
+      </c>
+      <c r="F63" s="21">
+        <v>24</v>
+      </c>
+      <c r="G63" s="21">
+        <v>53</v>
+      </c>
+      <c r="H63" s="21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="8">
+        <v>45662</v>
+      </c>
+      <c r="B64" s="21">
+        <v>4</v>
+      </c>
+      <c r="C64" s="21">
+        <v>50</v>
+      </c>
+      <c r="D64" s="21">
+        <v>0</v>
+      </c>
+      <c r="E64" s="21">
+        <v>9</v>
+      </c>
+      <c r="F64" s="21">
+        <v>13</v>
+      </c>
+      <c r="G64" s="21">
+        <v>6</v>
+      </c>
+      <c r="H64" s="21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="8">
+        <v>45663</v>
+      </c>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="8">
+        <v>45664</v>
+      </c>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="8">
+        <v>45665</v>
+      </c>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="8">
+        <v>45666</v>
+      </c>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="8">
+        <v>45667</v>
+      </c>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="8">
+        <v>45668</v>
+      </c>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="8">
+        <v>45669</v>
+      </c>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1434,7 +2360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88206E22-BD94-4571-A013-E35B2951DE9B}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
+    <sheetView zoomScale="63" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>

--- a/R/data/dane_na_przetwarzanie_danych.xlsx
+++ b/R/data/dane_na_przetwarzanie_danych.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\przetwarzanie_danych_projekt_semestralny\R\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008D063B-7F48-423C-85AF-00BF22DC6C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5BE6AA-B363-4CA2-B177-A083D637F012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{AD0FC870-279B-4892-97E5-F6FFCD0D3240}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{AD0FC870-279B-4892-97E5-F6FFCD0D3240}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -584,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12BAA47-A441-4CB4-8DD7-D595C9622A3D}">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="76" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65:H71"/>
+    <sheetView topLeftCell="A35" zoomScale="76" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2270,85 +2270,183 @@
       <c r="A65" s="8">
         <v>45663</v>
       </c>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
+      <c r="B65" s="25">
+        <v>4</v>
+      </c>
+      <c r="C65" s="25">
+        <v>13</v>
+      </c>
+      <c r="D65" s="25">
+        <v>12</v>
+      </c>
+      <c r="E65" s="25">
+        <v>8</v>
+      </c>
+      <c r="F65" s="25">
+        <v>12</v>
+      </c>
+      <c r="G65" s="25">
+        <v>14</v>
+      </c>
+      <c r="H65" s="25">
+        <v>13</v>
+      </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
         <v>45664</v>
       </c>
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
+      <c r="B66" s="25">
+        <v>3</v>
+      </c>
+      <c r="C66" s="25">
+        <v>30</v>
+      </c>
+      <c r="D66" s="25">
+        <v>0</v>
+      </c>
+      <c r="E66" s="25">
+        <v>12</v>
+      </c>
+      <c r="F66" s="25">
+        <v>47</v>
+      </c>
+      <c r="G66" s="25">
+        <v>22</v>
+      </c>
+      <c r="H66" s="25">
+        <v>42</v>
+      </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
         <v>45665</v>
       </c>
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
+      <c r="B67" s="25">
+        <v>1</v>
+      </c>
+      <c r="C67" s="25">
+        <v>41</v>
+      </c>
+      <c r="D67" s="25">
+        <v>0</v>
+      </c>
+      <c r="E67" s="25">
+        <v>10</v>
+      </c>
+      <c r="F67" s="25">
+        <v>18</v>
+      </c>
+      <c r="G67" s="25">
+        <v>58</v>
+      </c>
+      <c r="H67" s="25">
+        <v>52</v>
+      </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="8">
         <v>45666</v>
       </c>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
+      <c r="B68" s="25">
+        <v>2</v>
+      </c>
+      <c r="C68" s="25">
+        <v>52</v>
+      </c>
+      <c r="D68" s="25">
+        <v>56</v>
+      </c>
+      <c r="E68" s="25">
+        <v>7</v>
+      </c>
+      <c r="F68" s="25">
+        <v>38</v>
+      </c>
+      <c r="G68" s="25">
+        <v>16</v>
+      </c>
+      <c r="H68" s="25">
+        <v>15</v>
+      </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
         <v>45667</v>
       </c>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
+      <c r="B69" s="25">
+        <v>6</v>
+      </c>
+      <c r="C69" s="25">
+        <v>21</v>
+      </c>
+      <c r="D69" s="25">
+        <v>0</v>
+      </c>
+      <c r="E69" s="25">
+        <v>9</v>
+      </c>
+      <c r="F69" s="25">
+        <v>52</v>
+      </c>
+      <c r="G69" s="25">
+        <v>31</v>
+      </c>
+      <c r="H69" s="25">
+        <v>54</v>
+      </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
         <v>45668</v>
       </c>
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
+      <c r="B70" s="25">
+        <v>5</v>
+      </c>
+      <c r="C70" s="25">
+        <v>6</v>
+      </c>
+      <c r="D70" s="25">
+        <v>13</v>
+      </c>
+      <c r="E70" s="25">
+        <v>15</v>
+      </c>
+      <c r="F70" s="25">
+        <v>11</v>
+      </c>
+      <c r="G70" s="25">
+        <v>23</v>
+      </c>
+      <c r="H70" s="25">
+        <v>33</v>
+      </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
         <v>45669</v>
       </c>
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="25"/>
+      <c r="B71" s="25">
+        <v>7</v>
+      </c>
+      <c r="C71" s="25">
+        <v>3</v>
+      </c>
+      <c r="D71" s="25">
+        <v>17</v>
+      </c>
+      <c r="E71" s="25">
+        <v>11</v>
+      </c>
+      <c r="F71" s="25">
+        <v>45</v>
+      </c>
+      <c r="G71" s="25">
+        <v>11</v>
+      </c>
+      <c r="H71" s="25">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2360,7 +2458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88206E22-BD94-4571-A013-E35B2951DE9B}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView zoomScale="63" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
